--- a/documents/CVTE知识产权管理系统需求清单-TO 红坚果 20170711.xlsx
+++ b/documents/CVTE知识产权管理系统需求清单-TO 红坚果 20170711.xlsx
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专利管理界面的所有字段都可以进行筛选，并可以导出清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我的提案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,18 +380,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专利提案可支持国内专利、PCT、国外专利申请和案件关联###</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发明人提案后直接提交给对应专利工程师审批；部门可以自动关联IPR，但组织架构数据变动时导致部门新增时需要手动更新部门与IPR的关联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提案阶段需要提案人填写发明人贡献占比（必填），不需手动输入，自动从系统人员名单中选择；可添加多个发明人；发明人贡献占比不超过100%（设定提醒）；发明人贡献占比设定几个默认档位，用户可以自行输入，但需要匹配预设的校验规则，例如总和一定是100%，但最小的分配比例是10%。###</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如提案人提交案件前，有信息填写不完整，需要有弹窗进行提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,6 +401,18 @@
   </si>
   <si>
     <t>财务费用部分，可以在系统中由代理机构进行勾选，并生成费用账单发送账单审核任务给代理所；然后代理所对应系统账单或清单，可以在系统上发送当月账单任务并包含电子档的账单提供给我们用于请款，系统内部数据用于对代理机构的账单进行审核，请款动作线下进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利管理界面的所有字段都可以进行筛选，并可以导出清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利提案可支持国内专利、PCT、国外专利申请和案件关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提案阶段需要提案人填写发明人贡献占比（必填），不需手动输入，自动从系统人员名单中选择；可添加多个发明人；发明人贡献占比不超过100%（设定提醒）；发明人贡献占比设定几个默认档位，用户可以自行输入，但需要匹配预设的校验规则，例如总和一定是100%，但最小的分配比例是10%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +511,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -593,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -642,6 +649,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,10 +676,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -975,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -987,17 +997,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.15">
@@ -1005,389 +1015,389 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="25" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A5" s="23"/>
+      <c r="B5" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A6" s="23"/>
+      <c r="B6" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A7" s="23"/>
+      <c r="B7" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A8" s="23"/>
+      <c r="B8" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A9" s="23"/>
+      <c r="B9" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A10" s="23"/>
+      <c r="B10" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A11" s="23"/>
+      <c r="B11" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A12" s="23"/>
+      <c r="B12" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="25" t="s">
+    <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A13" s="23"/>
+      <c r="B13" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A14" s="23"/>
+      <c r="B14" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="25" t="s">
+    <row r="17" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A17" s="23"/>
+      <c r="B17" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A18" s="23"/>
+      <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A19" s="23"/>
+      <c r="B19" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A20" s="23"/>
+      <c r="B20" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A21" s="23"/>
+      <c r="B21" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="4" t="s">
-        <v>55</v>
+      <c r="A23" s="23"/>
+      <c r="B23" s="27" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A26" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A27" s="23"/>
+      <c r="B27" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="4" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A26" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
-      <c r="B27" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A28" s="19"/>
-      <c r="B28" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="4" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A30" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A31" s="23"/>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A32" s="23"/>
+      <c r="B32" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A33" s="23"/>
+      <c r="B33" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A34" s="23"/>
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A35" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A36" s="23"/>
+      <c r="B36" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A37" s="23"/>
+      <c r="B37" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A38" s="21"/>
+      <c r="B38" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A39" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A40" s="23"/>
+      <c r="B40" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A41" s="23"/>
+      <c r="B41" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A42" s="23"/>
+      <c r="B42" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A43" s="23"/>
+      <c r="B43" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A44" s="21"/>
+      <c r="B44" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A45" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A46" s="23"/>
+      <c r="B46" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A47" s="21"/>
+      <c r="B47" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A48" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A49" s="21"/>
+      <c r="B49" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A50" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A51" s="21"/>
+      <c r="B51" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A52" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A53" s="23"/>
+      <c r="B53" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A54" s="23"/>
+      <c r="B54" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A55" s="23"/>
+      <c r="B55" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A56" s="21"/>
+      <c r="B56" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A57" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A58" s="21"/>
+      <c r="B58" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A59" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+      <c r="A60" s="21"/>
+      <c r="B60" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A61" s="20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A30" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
-      <c r="B31" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A32" s="21"/>
-      <c r="B32" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
-      <c r="B33" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A34" s="21"/>
-      <c r="B34" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
-      <c r="B36" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
-      <c r="B37" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A38" s="19"/>
-      <c r="B38" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A39" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A40" s="21"/>
-      <c r="B40" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A41" s="21"/>
-      <c r="B41" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A42" s="21"/>
-      <c r="B42" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A43" s="21"/>
-      <c r="B43" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A44" s="19"/>
-      <c r="B44" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A45" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A46" s="21"/>
-      <c r="B46" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A47" s="19"/>
-      <c r="B47" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A48" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A49" s="19"/>
-      <c r="B49" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A50" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A51" s="19"/>
-      <c r="B51" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A52" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A53" s="21"/>
-      <c r="B53" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A54" s="21"/>
-      <c r="B54" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A55" s="21"/>
-      <c r="B55" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A56" s="19"/>
-      <c r="B56" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A57" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A58" s="19"/>
-      <c r="B58" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A59" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="12" x14ac:dyDescent="0.15">
-      <c r="A60" s="19"/>
-      <c r="B60" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A61" s="18" t="s">
-        <v>54</v>
-      </c>
       <c r="B61" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="21"/>
+      <c r="B62" s="4" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="19"/>
-      <c r="B62" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1428,61 +1438,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="24"/>
+      <c r="A1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
-        <v>65</v>
+      <c r="A3" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>67</v>
+      <c r="A7" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
